--- a/results/combinedresults/e19.xlsx
+++ b/results/combinedresults/e19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801C402-7812-F645-8FA6-C54BA2FCF16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABADF8-A721-D74B-BE2A-1ED7BA6C386E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15360" activeTab="1" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="289">
   <si>
     <t>tool</t>
   </si>
@@ -904,6 +904,9 @@
   <si>
     <t>qbf-mode-noproofreconstruction.dqbf19</t>
   </si>
+  <si>
+    <t>time of solved by both HQS and DQBDD</t>
+  </si>
 </sst>
 </file>
 
@@ -18237,11 +18240,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E88B51B-86D8-E547-9986-F518581AF70F}">
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:N259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D260" sqref="D260"/>
+      <selection pane="bottomLeft" activeCell="I259" sqref="I259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27932,7 +27935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>286</v>
       </c>
@@ -27955,6 +27958,19 @@
       <c r="J257">
         <f>246-J253-J255-J256</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>288</v>
+      </c>
+      <c r="G259">
+        <f>SUMIFS(G$4:G$249,$F$4:$F$249, "sat",$J$4:$J$249,"sat")+SUMIFS(G$4:G$249,$F$4:$F$249, "unsat",$J$4:$J$249,"unsat")</f>
+        <v>2479.8683906279994</v>
+      </c>
+      <c r="K259">
+        <f>SUMIFS(K$4:K$249,$F$4:$F$249, "sat",$J$4:$J$249,"sat")+SUMIFS(K$4:K$249,$F$4:$F$249, "unsat",$J$4:$J$249,"unsat")</f>
+        <v>1405.0374339610003</v>
       </c>
     </row>
   </sheetData>
